--- a/WEB/Uploads/QLBangKe.xlsx
+++ b/WEB/Uploads/QLBangKe.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen\Documents\GitHub\VanTai\WEB\Uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F3F85F-C10D-4BF3-91C6-39DE106239D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563BEE41-3CED-4F2B-94A3-5B791D6EA26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ST" sheetId="1" r:id="rId1"/>
+    <sheet name="AT" sheetId="2" r:id="rId2"/>
+    <sheet name="HPC" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$13:$Q$13</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ST!$A$13:$Q$13</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">ST!$1:$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="22">
   <si>
     <t>Nơi trả hàng</t>
   </si>
@@ -242,7 +244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -314,6 +316,10 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -645,7 +651,7 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -690,81 +696,81 @@
       <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:16" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
       <c r="F10" s="15"/>
-      <c r="K10" s="29" t="s">
+      <c r="K10" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
@@ -783,42 +789,42 @@
       <c r="N11" s="11"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="37" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="19"/>
-      <c r="F12" s="37" t="s">
+      <c r="F12" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="37" t="s">
+      <c r="G12" s="40"/>
+      <c r="H12" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="38"/>
-      <c r="J12" s="31" t="s">
+      <c r="I12" s="40"/>
+      <c r="J12" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="39" t="s">
+      <c r="K12" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="L12" s="31" t="s">
+      <c r="L12" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="31" t="s">
+      <c r="M12" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="N12" s="31" t="s">
+      <c r="N12" s="33" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="36"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="14" t="s">
         <v>11</v>
       </c>
@@ -840,11 +846,11 @@
       <c r="I13" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="32"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -868,4 +874,462 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="33" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DA3DE0-80DA-445B-92A9-20753B0422F0}">
+  <dimension ref="A1:P13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="24" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" style="17" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" style="6" customWidth="1"/>
+    <col min="14" max="14" width="37.28515625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="19.42578125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="24" style="6" customWidth="1"/>
+    <col min="17" max="17" width="28.5703125" style="6" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="16"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="28"/>
+      <c r="K10" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="11"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="40"/>
+      <c r="H12" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="40"/>
+      <c r="J12" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="36"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="34"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="A5:N5"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C3C4F9E-04A0-4A3F-B1A0-AC4AE9A3D848}">
+  <dimension ref="A1:P13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="24" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" style="17" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" style="6" customWidth="1"/>
+    <col min="14" max="14" width="37.28515625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="19.42578125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="24" style="6" customWidth="1"/>
+    <col min="17" max="17" width="28.5703125" style="6" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="16"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="28"/>
+      <c r="K10" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="11"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="40"/>
+      <c r="H12" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="40"/>
+      <c r="J12" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="36"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="34"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="A5:N5"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>